--- a/vedomost.pm19-1.xlsx
+++ b/vedomost.pm19-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>ФГАОУ ВО «Северо-Восточный федеральный университет им.М.К.Аммосова</t>
   </si>
@@ -89,7 +89,7 @@
     <t>1 контр. срез (max=34)</t>
   </si>
   <si>
-    <t>2 контр. срез (max=36)</t>
+    <t>2 контр. срез (max=60)</t>
   </si>
   <si>
     <t>1</t>
@@ -104,6 +104,9 @@
     <t>12,0</t>
   </si>
   <si>
+    <t>22,0</t>
+  </si>
+  <si>
     <t>0,0</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>14,0</t>
   </si>
   <si>
+    <t>34,0</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t>4,0</t>
   </si>
   <si>
+    <t>19,0</t>
+  </si>
+  <si>
     <t>Васильев Александр Николаевич</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
     <t>8,0</t>
   </si>
   <si>
+    <t>18,0</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -161,7 +173,7 @@
     <t>191184</t>
   </si>
   <si>
-    <t>34,0</t>
+    <t>54,0</t>
   </si>
   <si>
     <t>7</t>
@@ -182,6 +194,9 @@
     <t>10,0</t>
   </si>
   <si>
+    <t>30,0</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -191,6 +206,9 @@
     <t>191165</t>
   </si>
   <si>
+    <t>28,0</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -200,6 +218,9 @@
     <t>191159</t>
   </si>
   <si>
+    <t>32,0</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -237,6 +258,9 @@
   </si>
   <si>
     <t>6,0</t>
+  </si>
+  <si>
+    <t>16,0</t>
   </si>
   <si>
     <t>15</t>
@@ -836,7 +860,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
@@ -846,22 +870,22 @@
     </row>
     <row customHeight="1" ht="16" r="14" spans="1:11">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
@@ -871,22 +895,22 @@
     </row>
     <row customHeight="1" ht="16" r="15" spans="1:11">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
@@ -899,19 +923,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
@@ -921,22 +945,22 @@
     </row>
     <row customHeight="1" ht="16" r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
@@ -946,22 +970,22 @@
     </row>
     <row customHeight="1" ht="16" r="18" spans="1:11">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
@@ -971,22 +995,22 @@
     </row>
     <row customHeight="1" ht="16" r="19" spans="1:11">
       <c r="A19" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -996,20 +1020,20 @@
     </row>
     <row customHeight="1" ht="16" r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" s="6" t="s"/>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
@@ -1019,22 +1043,22 @@
     </row>
     <row customHeight="1" ht="16" r="21" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
@@ -1044,22 +1068,22 @@
     </row>
     <row customHeight="1" ht="16" r="22" spans="1:11">
       <c r="A22" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
@@ -1069,22 +1093,22 @@
     </row>
     <row customHeight="1" ht="16" r="23" spans="1:11">
       <c r="A23" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" s="6" t="n"/>
       <c r="H23" s="6" t="n"/>
@@ -1094,22 +1118,22 @@
     </row>
     <row customHeight="1" ht="16" r="24" spans="1:11">
       <c r="A24" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6" t="n"/>
       <c r="H24" s="6" t="n"/>
@@ -1119,22 +1143,22 @@
     </row>
     <row customHeight="1" ht="16" r="25" spans="1:11">
       <c r="A25" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
@@ -1144,22 +1168,22 @@
     </row>
     <row customHeight="1" ht="16" r="26" spans="1:11">
       <c r="A26" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" s="6" t="n"/>
       <c r="H26" s="6" t="n"/>
@@ -1169,22 +1193,22 @@
     </row>
     <row customHeight="1" ht="16" r="27" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
@@ -1194,22 +1218,22 @@
     </row>
     <row customHeight="1" ht="16" r="28" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="6" t="n"/>

--- a/vedomost.pm19-1.xlsx
+++ b/vedomost.pm19-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>ФГАОУ ВО «Северо-Восточный федеральный университет им.М.К.Аммосова</t>
   </si>
@@ -107,39 +107,45 @@
     <t>22,0</t>
   </si>
   <si>
+    <t>80,0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Алексеева Алтана Александровна</t>
+  </si>
+  <si>
+    <t>191172</t>
+  </si>
+  <si>
+    <t>14,0</t>
+  </si>
+  <si>
+    <t>34,0</t>
+  </si>
+  <si>
+    <t>90,0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Бережнев Николай Николаевич</t>
+  </si>
+  <si>
+    <t>191173</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>19,0</t>
+  </si>
+  <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Алексеева Алтана Александровна</t>
-  </si>
-  <si>
-    <t>191172</t>
-  </si>
-  <si>
-    <t>14,0</t>
-  </si>
-  <si>
-    <t>34,0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Бережнев Николай Николаевич</t>
-  </si>
-  <si>
-    <t>191173</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>19,0</t>
-  </si>
-  <si>
     <t>Васильев Александр Николаевич</t>
   </si>
   <si>
@@ -176,6 +182,9 @@
     <t>54,0</t>
   </si>
   <si>
+    <t>100,0</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
   </si>
   <si>
     <t>32,0</t>
+  </si>
+  <si>
+    <t>88,0</t>
   </si>
   <si>
     <t>11</t>
@@ -885,7 +897,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
@@ -895,22 +907,22 @@
     </row>
     <row customHeight="1" ht="16" r="15" spans="1:11">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
@@ -923,19 +935,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
@@ -945,22 +957,22 @@
     </row>
     <row customHeight="1" ht="16" r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
@@ -970,22 +982,22 @@
     </row>
     <row customHeight="1" ht="16" r="18" spans="1:11">
       <c r="A18" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
@@ -995,22 +1007,22 @@
     </row>
     <row customHeight="1" ht="16" r="19" spans="1:11">
       <c r="A19" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -1020,20 +1032,20 @@
     </row>
     <row customHeight="1" ht="16" r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6" t="s"/>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
@@ -1043,22 +1055,22 @@
     </row>
     <row customHeight="1" ht="16" r="21" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
@@ -1068,22 +1080,22 @@
     </row>
     <row customHeight="1" ht="16" r="22" spans="1:11">
       <c r="A22" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
@@ -1093,22 +1105,22 @@
     </row>
     <row customHeight="1" ht="16" r="23" spans="1:11">
       <c r="A23" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G23" s="6" t="n"/>
       <c r="H23" s="6" t="n"/>
@@ -1118,13 +1130,13 @@
     </row>
     <row customHeight="1" ht="16" r="24" spans="1:11">
       <c r="A24" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>34</v>
@@ -1133,7 +1145,7 @@
         <v>35</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G24" s="6" t="n"/>
       <c r="H24" s="6" t="n"/>
@@ -1143,22 +1155,22 @@
     </row>
     <row customHeight="1" ht="16" r="25" spans="1:11">
       <c r="A25" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
@@ -1168,22 +1180,22 @@
     </row>
     <row customHeight="1" ht="16" r="26" spans="1:11">
       <c r="A26" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G26" s="6" t="n"/>
       <c r="H26" s="6" t="n"/>
@@ -1193,22 +1205,22 @@
     </row>
     <row customHeight="1" ht="16" r="27" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
@@ -1218,22 +1230,22 @@
     </row>
     <row customHeight="1" ht="16" r="28" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="6" t="n"/>
